--- a/FM.xlsx
+++ b/FM.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$142</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="39">
   <si>
     <t>RWSD_KEY</t>
   </si>
@@ -124,6 +124,27 @@
   <si>
     <t>1-2 mi warm up, 1-2 mi cool down</t>
   </si>
+  <si>
+    <t>1-2 mi warm up, 1-2 mi cool down, 6x800 - 400 recovery, Speed Pace -1:00, Recovery Pace +2:20</t>
+  </si>
+  <si>
+    <t>1-2 mi warm up, 1-2 mi cool down, 5x1000 - 400 recovery, Speed Pace -1:00, Recovery Pace +2:20</t>
+  </si>
+  <si>
+    <t>1-2 mi warm up, 1-2 mi cool down, 4x1200 - 400 recovery, Speed Pace -1:00, Recovery Pace +2:20</t>
+  </si>
+  <si>
+    <t>1-2 mi warm up, 1-2 mi cool down, 6x1 mi - 400 m recovery, Speed Pace -0:10, Recovery Pace +2:20</t>
+  </si>
+  <si>
+    <t>1-2 mi warm up, 1-2 mi cool down, 4x1.5 mi - 800 m recovery, Speed Pace -0:10, Recovery Pace +2:20</t>
+  </si>
+  <si>
+    <t>1-2 mi warm up, 1-2 mi cool down, 3x2 mi - 800 m recovery, Speed Pace -0:10, Recovery Pace +2:20</t>
+  </si>
+  <si>
+    <t>1-2 mi warm up, 1-2 mi cool down, 2x3 mi - 1 mi recovery, Speed Pace -0:10, Recovery Pace +2:20</t>
+  </si>
 </sst>
 </file>
 
@@ -172,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -208,6 +229,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K142"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116:G116"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66:I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,12 +527,13 @@
     <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="16" customWidth="1"/>
+    <col min="7" max="7" width="52.42578125" style="16" customWidth="1"/>
     <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="83.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>3</v>
       </c>
@@ -573,11 +599,15 @@
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 0, 0, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K6" si="0">WEEKDAY(D2)</f>
+        <f t="shared" ref="K2:K5" si="0">WEEKDAY(D2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L2" s="17">
+        <f>WEEKNUM(D2)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>3</v>
       </c>
@@ -611,8 +641,13 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L3" s="17">
+        <f t="shared" ref="L3:L66" si="1">WEEKNUM(D3)</f>
+        <v>31</v>
+      </c>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -623,7 +658,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" ref="D4:D59" si="1">$D$1+C4</f>
+        <f t="shared" ref="D4:D59" si="2">$D$1+C4</f>
         <v>42213</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -639,15 +674,20 @@
         <v>20</v>
       </c>
       <c r="I4" s="2" t="str">
-        <f t="shared" ref="I4:I67" si="2">CONCATENATE("INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(", A4, ", ", B4, ", ", C4, ", '", E4, "', ", F4, ", '", G4, "', '", H4, "');")</f>
+        <f t="shared" ref="I4:I67" si="3">CONCATENATE("INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(", A4, ", ", B4, ", ", C4, ", '", E4, "', ", F4, ", '", G4, "', '", H4, "');")</f>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 2, 2, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L4" s="17">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>3</v>
       </c>
@@ -658,7 +698,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42214</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -674,15 +714,20 @@
         <v>20</v>
       </c>
       <c r="I5" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 3, 3, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L5" s="17">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -693,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42215</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -709,15 +754,19 @@
         <v>10</v>
       </c>
       <c r="I6" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 4, 4, 'Easy Run', 3, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K6">
         <f>WEEKDAY(D6)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L6" s="17">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>3</v>
       </c>
@@ -728,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42216</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -744,15 +793,20 @@
         <v>20</v>
       </c>
       <c r="I7" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 5, 5, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K7">
-        <f t="shared" ref="K7:K70" si="3">WEEKDAY(D7)</f>
+        <f t="shared" ref="K7:K70" si="4">WEEKDAY(D7)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L7" s="17">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>3</v>
       </c>
@@ -763,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42217</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -779,15 +833,19 @@
         <v>10</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 6, 6, 'Easy Run', 3, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L8" s="17">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>3</v>
       </c>
@@ -798,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42218</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -814,15 +872,19 @@
         <v>10</v>
       </c>
       <c r="I9" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 7, 7, 'Easy Run', 4, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L9" s="17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>3</v>
       </c>
@@ -833,7 +895,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42219</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -849,26 +911,31 @@
         <v>20</v>
       </c>
       <c r="I10" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 8, 8, 'Rest Day', 0, 'Take it Easy', 'None');</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6">
         <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 8, 8, 'Rest Day', 0, 'Take it Easy', 'None');</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3">
-        <v>9</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="1"/>
         <v>42220</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -884,26 +951,30 @@
         <v>10</v>
       </c>
       <c r="I11" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 9, 9, 'Easy Run', 2, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L11" s="17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
         <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 9, 9, 'Easy Run', 2, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="1"/>
         <v>42221</v>
       </c>
       <c r="E12" s="3" t="s">
@@ -919,15 +990,20 @@
         <v>20</v>
       </c>
       <c r="I12" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 10, 10, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L12" s="17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>3</v>
       </c>
@@ -938,7 +1014,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42222</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -954,15 +1030,19 @@
         <v>10</v>
       </c>
       <c r="I13" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 11, 11, 'Easy Run', 3, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L13" s="17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>3</v>
       </c>
@@ -973,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42223</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -989,15 +1069,19 @@
         <v>10</v>
       </c>
       <c r="I14" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 12, 12, 'Easy Run', 3, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L14" s="17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>3</v>
       </c>
@@ -1008,7 +1092,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42224</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1024,15 +1108,19 @@
         <v>10</v>
       </c>
       <c r="I15" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 13, 13, 'Easy Run', 3, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L15" s="17">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>3</v>
       </c>
@@ -1043,7 +1131,7 @@
         <v>14</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42225</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -1059,15 +1147,19 @@
         <v>10</v>
       </c>
       <c r="I16" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 14, 14, 'Easy Run', 4, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L16" s="17">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>3</v>
       </c>
@@ -1078,7 +1170,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42226</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -1094,15 +1186,20 @@
         <v>20</v>
       </c>
       <c r="I17" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 15, 15, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L17" s="17">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>3</v>
       </c>
@@ -1113,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42227</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -1129,15 +1226,19 @@
         <v>10</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 16, 16, 'Easy Run', 4, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L18" s="17">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>3</v>
       </c>
@@ -1148,7 +1249,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42228</v>
       </c>
       <c r="E19" s="3" t="s">
@@ -1164,15 +1265,20 @@
         <v>20</v>
       </c>
       <c r="I19" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 17, 17, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L19" s="17">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>3</v>
       </c>
@@ -1183,7 +1289,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42229</v>
       </c>
       <c r="E20" s="3" t="s">
@@ -1199,15 +1305,19 @@
         <v>10</v>
       </c>
       <c r="I20" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 18, 18, 'Easy Run', 4, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L20" s="17">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>3</v>
       </c>
@@ -1218,7 +1328,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42230</v>
       </c>
       <c r="E21" s="3" t="s">
@@ -1234,15 +1344,19 @@
         <v>10</v>
       </c>
       <c r="I21" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 19, 19, 'Easy Run', 4, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L21" s="17">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>3</v>
       </c>
@@ -1253,7 +1367,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42231</v>
       </c>
       <c r="E22" s="3" t="s">
@@ -1269,15 +1383,19 @@
         <v>10</v>
       </c>
       <c r="I22" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 20, 20, 'Easy Run', 4, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L22" s="17">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>3</v>
       </c>
@@ -1288,7 +1406,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42232</v>
       </c>
       <c r="E23" s="3" t="s">
@@ -1304,15 +1422,19 @@
         <v>10</v>
       </c>
       <c r="I23" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 21, 21, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L23" s="17">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>3</v>
       </c>
@@ -1323,7 +1445,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42233</v>
       </c>
       <c r="E24" s="3" t="s">
@@ -1339,15 +1461,20 @@
         <v>20</v>
       </c>
       <c r="I24" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 22, 22, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L24" s="17">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="M24" s="11"/>
+    </row>
+    <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>3</v>
       </c>
@@ -1358,7 +1485,7 @@
         <v>23</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42234</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -1374,15 +1501,19 @@
         <v>10</v>
       </c>
       <c r="I25" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 23, 23, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L25" s="17">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>3</v>
       </c>
@@ -1393,7 +1524,7 @@
         <v>24</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42235</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -1409,15 +1540,20 @@
         <v>20</v>
       </c>
       <c r="I26" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 24, 24, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L26" s="17">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>3</v>
       </c>
@@ -1428,7 +1564,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42236</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -1444,15 +1580,19 @@
         <v>10</v>
       </c>
       <c r="I27" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 25, 25, 'Easy Run', 3, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L27" s="17">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>3</v>
       </c>
@@ -1463,7 +1603,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42237</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -1479,15 +1619,19 @@
         <v>10</v>
       </c>
       <c r="I28" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 26, 26, 'Easy Run', 3, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L28" s="17">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>3</v>
       </c>
@@ -1498,7 +1642,7 @@
         <v>27</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42238</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -1514,15 +1658,19 @@
         <v>10</v>
       </c>
       <c r="I29" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 27, 27, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L29" s="17">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>3</v>
       </c>
@@ -1533,7 +1681,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42239</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -1549,15 +1697,19 @@
         <v>10</v>
       </c>
       <c r="I30" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 28, 28, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L30" s="17">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>3</v>
       </c>
@@ -1568,7 +1720,7 @@
         <v>29</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42240</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -1584,15 +1736,20 @@
         <v>20</v>
       </c>
       <c r="I31" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 29, 29, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L31" s="17">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>3</v>
       </c>
@@ -1603,7 +1760,7 @@
         <v>30</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42241</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -1619,15 +1776,19 @@
         <v>10</v>
       </c>
       <c r="I32" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 30, 30, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K32">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L32" s="17">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>3</v>
       </c>
@@ -1638,7 +1799,7 @@
         <v>31</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42242</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -1654,15 +1815,20 @@
         <v>20</v>
       </c>
       <c r="I33" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 31, 31, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L33" s="17">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="M33" s="11"/>
+    </row>
+    <row r="34" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>3</v>
       </c>
@@ -1673,7 +1839,7 @@
         <v>32</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42243</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -1689,15 +1855,19 @@
         <v>10</v>
       </c>
       <c r="I34" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 32, 32, 'Easy Run', 4, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L34" s="17">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>3</v>
       </c>
@@ -1708,7 +1878,7 @@
         <v>33</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42244</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1724,15 +1894,19 @@
         <v>10</v>
       </c>
       <c r="I35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 33, 33, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L35" s="17">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>3</v>
       </c>
@@ -1743,7 +1917,7 @@
         <v>34</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42245</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -1759,15 +1933,19 @@
         <v>10</v>
       </c>
       <c r="I36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 34, 34, 'Easy Run', 4, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L36" s="17">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>3</v>
       </c>
@@ -1778,7 +1956,7 @@
         <v>35</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42246</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -1794,15 +1972,19 @@
         <v>10</v>
       </c>
       <c r="I37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 35, 35, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L37" s="17">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>3</v>
       </c>
@@ -1813,7 +1995,7 @@
         <v>36</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42247</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -1829,15 +2011,19 @@
         <v>10</v>
       </c>
       <c r="I38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 36, 36, 'Easy Run', 4, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L38" s="17">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>3</v>
       </c>
@@ -1848,7 +2034,7 @@
         <v>37</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42248</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -1864,15 +2050,19 @@
         <v>12</v>
       </c>
       <c r="I39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 37, 37, 'Speed Workout', 6, '1-2 mi warm up, 1-2 mi cool down, 12x400 - 400 recovery, Speed Pace -1:00, Recovery Pace +2:20', 'Track');</v>
       </c>
       <c r="K39">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L39" s="17">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>3</v>
       </c>
@@ -1883,7 +2073,7 @@
         <v>38</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42249</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -1899,15 +2089,20 @@
         <v>20</v>
       </c>
       <c r="I40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 38, 38, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L40" s="17">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>3</v>
       </c>
@@ -1918,7 +2113,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42250</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -1934,15 +2129,19 @@
         <v>10</v>
       </c>
       <c r="I41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 39, 39, 'Tempo Workout', 5, '1-2 mi warm up, 1-2 mi cool down', 'The Road');</v>
       </c>
       <c r="K41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L41" s="17">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>3</v>
       </c>
@@ -1953,7 +2152,7 @@
         <v>40</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42251</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -1969,15 +2168,19 @@
         <v>10</v>
       </c>
       <c r="I42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 40, 40, 'Easy Run', 4, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L42" s="17">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>3</v>
       </c>
@@ -1988,7 +2191,7 @@
         <v>41</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42252</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -2004,15 +2207,19 @@
         <v>10</v>
       </c>
       <c r="I43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 41, 41, 'Easy Run', 8, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L43" s="17">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>3</v>
       </c>
@@ -2023,7 +2230,7 @@
         <v>42</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42253</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -2039,15 +2246,19 @@
         <v>10</v>
       </c>
       <c r="I44" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 42, 42, 'Easy Run', 8, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L44" s="17">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>3</v>
       </c>
@@ -2058,7 +2269,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42254</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -2074,15 +2285,19 @@
         <v>10</v>
       </c>
       <c r="I45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 43, 43, 'Easy Run', 4, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L45" s="17">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>3</v>
       </c>
@@ -2093,7 +2308,7 @@
         <v>44</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42255</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -2109,15 +2324,19 @@
         <v>12</v>
       </c>
       <c r="I46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 44, 44, 'Speed Workout', 5, '1-2 mi warm up, 1-2 mi cool down, 8x600 - 400 recovery, Speed Pace -1:00, Recovery Pace +2:20', 'Track');</v>
       </c>
       <c r="K46">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L46" s="17">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>3</v>
       </c>
@@ -2128,7 +2347,7 @@
         <v>45</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42256</v>
       </c>
       <c r="E47" s="3" t="s">
@@ -2144,15 +2363,20 @@
         <v>20</v>
       </c>
       <c r="I47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 45, 45, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L47" s="17">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>3</v>
       </c>
@@ -2163,7 +2387,7 @@
         <v>46</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42257</v>
       </c>
       <c r="E48" s="3" t="s">
@@ -2179,15 +2403,19 @@
         <v>10</v>
       </c>
       <c r="I48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 46, 46, 'Tempo Workout', 5, '1-2 mi warm up, 1-2 mi cool down', 'The Road');</v>
       </c>
       <c r="K48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L48" s="17">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>3</v>
       </c>
@@ -2198,7 +2426,7 @@
         <v>47</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42258</v>
       </c>
       <c r="E49" s="3" t="s">
@@ -2214,15 +2442,19 @@
         <v>10</v>
       </c>
       <c r="I49" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 47, 47, 'Easy Run', 4, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L49" s="17">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>3</v>
       </c>
@@ -2233,7 +2465,7 @@
         <v>48</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42259</v>
       </c>
       <c r="E50" s="3" t="s">
@@ -2249,15 +2481,19 @@
         <v>10</v>
       </c>
       <c r="I50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 48, 48, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L50" s="17">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>3</v>
       </c>
@@ -2268,7 +2504,7 @@
         <v>49</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42260</v>
       </c>
       <c r="E51" s="3" t="s">
@@ -2284,15 +2520,19 @@
         <v>10</v>
       </c>
       <c r="I51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 49, 49, 'Long Run', 10, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
       </c>
       <c r="K51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L51" s="17">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>3</v>
       </c>
@@ -2303,7 +2543,7 @@
         <v>50</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42261</v>
       </c>
       <c r="E52" s="3" t="s">
@@ -2313,21 +2553,25 @@
         <v>6</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I52" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 50, 50, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 50, 50, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L52" s="17">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>3</v>
       </c>
@@ -2338,7 +2582,7 @@
         <v>51</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42262</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -2348,21 +2592,25 @@
         <v>4.5</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I53" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 51, 51, 'Speed Workout', 4.5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'Track');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 51, 51, 'Speed Workout', 4.5, '1-2 mi warm up, 1-2 mi cool down, 6x800 - 400 recovery, Speed Pace -1:00, Recovery Pace +2:20', 'Track');</v>
       </c>
       <c r="K53">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L53" s="17">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>3</v>
       </c>
@@ -2373,7 +2621,7 @@
         <v>52</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42263</v>
       </c>
       <c r="E54" s="3" t="s">
@@ -2383,21 +2631,26 @@
         <v>0</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I54" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 52, 52, 'Rest Day', 0, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'None');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 52, 52, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L54" s="17">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="M54" s="11"/>
+    </row>
+    <row r="55" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>3</v>
       </c>
@@ -2408,7 +2661,7 @@
         <v>53</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42264</v>
       </c>
       <c r="E55" s="3" t="s">
@@ -2418,21 +2671,25 @@
         <v>5</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I55" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 53, 53, 'Tempo Workout', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 53, 53, 'Tempo Workout', 5, '1-2 mi warm up, 1-2 mi cool down', 'The Road');</v>
       </c>
       <c r="K55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L55" s="17">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>3</v>
       </c>
@@ -2443,7 +2700,7 @@
         <v>54</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42265</v>
       </c>
       <c r="E56" s="3" t="s">
@@ -2453,21 +2710,25 @@
         <v>5</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I56" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 54, 54, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 54, 54, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L56" s="17">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>3</v>
       </c>
@@ -2478,7 +2739,7 @@
         <v>55</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42266</v>
       </c>
       <c r="E57" s="3" t="s">
@@ -2488,21 +2749,25 @@
         <v>6</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I57" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 55, 55, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 55, 55, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L57" s="17">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>3</v>
       </c>
@@ -2513,7 +2778,7 @@
         <v>56</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42267</v>
       </c>
       <c r="E58" s="3" t="s">
@@ -2529,15 +2794,19 @@
         <v>10</v>
       </c>
       <c r="I58" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 56, 56, 'Long Run', 10, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
       </c>
       <c r="K58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L58" s="17">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>3</v>
       </c>
@@ -2548,7 +2817,7 @@
         <v>57</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42268</v>
       </c>
       <c r="E59" s="3" t="s">
@@ -2558,21 +2827,25 @@
         <v>5</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I59" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 57, 57, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 57, 57, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L59" s="17">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>3</v>
       </c>
@@ -2583,7 +2856,7 @@
         <v>58</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" ref="D60:D129" si="4">$D$1+C60</f>
+        <f t="shared" ref="D60:D129" si="5">$D$1+C60</f>
         <v>42269</v>
       </c>
       <c r="E60" s="3" t="s">
@@ -2593,21 +2866,25 @@
         <v>4.38</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I60" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 58, 58, 'Speed Workout', 4.38, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'Track');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 58, 58, 'Speed Workout', 4.38, '1-2 mi warm up, 1-2 mi cool down, 5x1000 - 400 recovery, Speed Pace -1:00, Recovery Pace +2:20', 'Track');</v>
       </c>
       <c r="K60">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L60" s="17">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>3</v>
       </c>
@@ -2618,7 +2895,7 @@
         <v>59</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42270</v>
       </c>
       <c r="E61" s="3" t="s">
@@ -2628,21 +2905,26 @@
         <v>0</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H61" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I61" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 59, 59, 'Rest Day', 0, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'None');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 59, 59, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L61" s="17">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="M61" s="11"/>
+    </row>
+    <row r="62" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>3</v>
       </c>
@@ -2653,7 +2935,7 @@
         <v>60</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42271</v>
       </c>
       <c r="E62" s="3" t="s">
@@ -2663,21 +2945,25 @@
         <v>8</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I62" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 60, 60, 'Tempo Workout', 8, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 60, 60, 'Tempo Workout', 8, '1-2 mi warm up, 1-2 mi cool down', 'The Road');</v>
       </c>
       <c r="K62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L62" s="17">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>3</v>
       </c>
@@ -2688,7 +2974,7 @@
         <v>61</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42272</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -2698,21 +2984,25 @@
         <v>6</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I63" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 61, 61, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 61, 61, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L63" s="17">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>3</v>
       </c>
@@ -2723,7 +3013,7 @@
         <v>62</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42273</v>
       </c>
       <c r="E64" s="3" t="s">
@@ -2733,21 +3023,25 @@
         <v>5</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I64" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 62, 62, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 62, 62, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L64" s="17">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>3</v>
       </c>
@@ -2758,7 +3052,7 @@
         <v>63</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42274</v>
       </c>
       <c r="E65" s="3" t="s">
@@ -2774,18 +3068,22 @@
         <v>10</v>
       </c>
       <c r="I65" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 63, 63, 'Long Run', 13.1, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="L65" s="17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>3</v>
       </c>
@@ -2796,7 +3094,7 @@
         <v>64</v>
       </c>
       <c r="D66" s="8">
-        <f t="shared" ref="D66" si="5">$D$1+C66</f>
+        <f t="shared" ref="D66" si="6">$D$1+C66</f>
         <v>42275</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -2806,22 +3104,27 @@
         <v>6</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I66" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 64, 64, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+      <c r="I66" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 64, 64, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="J66" s="10"/>
       <c r="K66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="L66" s="17">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M66"/>
+    </row>
+    <row r="67" spans="1:13" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>3</v>
       </c>
@@ -2832,7 +3135,7 @@
         <v>65</v>
       </c>
       <c r="D67" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42276</v>
       </c>
       <c r="E67" s="7" t="s">
@@ -2842,22 +3145,27 @@
         <v>4.5</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I67" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 65, 65, 'Speed Workout', 4.5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'Track');</v>
+      <c r="I67" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 65, 65, 'Speed Workout', 4.5, '1-2 mi warm up, 1-2 mi cool down, 6x800 - 400 recovery, Speed Pace -1:00, Recovery Pace +2:20', 'Track');</v>
       </c>
       <c r="J67" s="10"/>
       <c r="K67">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="L67" s="17">
+        <f t="shared" ref="L67:L130" si="7">WEEKNUM(D67)</f>
+        <v>40</v>
+      </c>
+      <c r="M67"/>
+    </row>
+    <row r="68" spans="1:13" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>3</v>
       </c>
@@ -2868,7 +3176,7 @@
         <v>66</v>
       </c>
       <c r="D68" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42277</v>
       </c>
       <c r="E68" s="7" t="s">
@@ -2878,22 +3186,27 @@
         <v>0</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="2" t="str">
-        <f t="shared" ref="I68:I131" si="6">CONCATENATE("INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(", A68, ", ", B68, ", ", C68, ", '", E68, "', ", F68, ", '", G68, "', '", H68, "');")</f>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 66, 66, 'Rest Day', 0, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'None');</v>
+      <c r="I68" s="18" t="str">
+        <f t="shared" ref="I68:I131" si="8">CONCATENATE("INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(", A68, ", ", B68, ", ", C68, ", '", E68, "', ", F68, ", '", G68, "', '", H68, "');")</f>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 66, 66, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="J68" s="10"/>
       <c r="K68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="L68" s="17">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="M68" s="11"/>
+    </row>
+    <row r="69" spans="1:13" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>3</v>
       </c>
@@ -2904,7 +3217,7 @@
         <v>67</v>
       </c>
       <c r="D69" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42278</v>
       </c>
       <c r="E69" s="7" t="s">
@@ -2914,22 +3227,27 @@
         <v>5</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 67, 67, 'Tempo Workout', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+      <c r="I69" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 67, 67, 'Tempo Workout', 5, '1-2 mi warm up, 1-2 mi cool down', 'The Road');</v>
       </c>
       <c r="J69" s="10"/>
       <c r="K69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="L69" s="17">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="M69"/>
+    </row>
+    <row r="70" spans="1:13" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>3</v>
       </c>
@@ -2940,7 +3258,7 @@
         <v>68</v>
       </c>
       <c r="D70" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42279</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -2950,22 +3268,27 @@
         <v>5</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I70" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 68, 68, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+      <c r="I70" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 68, 68, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="J70" s="10"/>
       <c r="K70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="L70" s="17">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="M70"/>
+    </row>
+    <row r="71" spans="1:13" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>3</v>
       </c>
@@ -2976,7 +3299,7 @@
         <v>69</v>
       </c>
       <c r="D71" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42280</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -2986,22 +3309,27 @@
         <v>6</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I71" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 69, 69, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+      <c r="I71" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 69, 69, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="J71" s="10"/>
       <c r="K71">
-        <f t="shared" ref="K71:K134" si="7">WEEKDAY(D71)</f>
+        <f t="shared" ref="K71:K134" si="9">WEEKDAY(D71)</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="L71" s="17">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="M71"/>
+    </row>
+    <row r="72" spans="1:13" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>3</v>
       </c>
@@ -3012,7 +3340,7 @@
         <v>70</v>
       </c>
       <c r="D72" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42281</v>
       </c>
       <c r="E72" s="7" t="s">
@@ -3027,17 +3355,22 @@
       <c r="H72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I72" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="I72" s="18" t="str">
+        <f t="shared" si="8"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 70, 70, 'Long Run', 10, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="L72" s="17">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="M72"/>
+    </row>
+    <row r="73" spans="1:13" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>3</v>
       </c>
@@ -3048,7 +3381,7 @@
         <v>71</v>
       </c>
       <c r="D73" s="8">
-        <f t="shared" ref="D73" si="8">$D$1+C73</f>
+        <f t="shared" ref="D73" si="10">$D$1+C73</f>
         <v>42282</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -3058,22 +3391,27 @@
         <v>5</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I73" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 71, 71, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+      <c r="I73" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 71, 71, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="J73" s="10"/>
       <c r="K73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="L73" s="17">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="M73"/>
+    </row>
+    <row r="74" spans="1:13" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>3</v>
       </c>
@@ -3084,7 +3422,7 @@
         <v>72</v>
       </c>
       <c r="D74" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42283</v>
       </c>
       <c r="E74" s="7" t="s">
@@ -3094,22 +3432,27 @@
         <v>4.38</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I74" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 72, 72, 'Speed Workout', 4.38, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'Track');</v>
+      <c r="I74" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 72, 72, 'Speed Workout', 4.38, '1-2 mi warm up, 1-2 mi cool down, 5x1000 - 400 recovery, Speed Pace -1:00, Recovery Pace +2:20', 'Track');</v>
       </c>
       <c r="J74" s="10"/>
       <c r="K74">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L74" s="17">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="M74"/>
+    </row>
+    <row r="75" spans="1:13" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>3</v>
       </c>
@@ -3120,7 +3463,7 @@
         <v>73</v>
       </c>
       <c r="D75" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42284</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -3130,22 +3473,27 @@
         <v>0</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I75" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 73, 73, 'Rest Day', 0, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'None');</v>
+      <c r="I75" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 73, 73, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="J75" s="10"/>
       <c r="K75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="L75" s="17">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="M75" s="11"/>
+    </row>
+    <row r="76" spans="1:13" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>3</v>
       </c>
@@ -3156,7 +3504,7 @@
         <v>74</v>
       </c>
       <c r="D76" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42285</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -3166,22 +3514,27 @@
         <v>8</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I76" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 74, 74, 'Tempo Workout', 8, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+      <c r="I76" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 74, 74, 'Tempo Workout', 8, '1-2 mi warm up, 1-2 mi cool down', 'The Road');</v>
       </c>
       <c r="J76" s="10"/>
       <c r="K76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="L76" s="17">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="M76"/>
+    </row>
+    <row r="77" spans="1:13" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>3</v>
       </c>
@@ -3192,7 +3545,7 @@
         <v>75</v>
       </c>
       <c r="D77" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42286</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -3202,22 +3555,27 @@
         <v>6</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I77" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 75, 75, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+      <c r="I77" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 75, 75, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="J77" s="10"/>
       <c r="K77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="L77" s="17">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="M77"/>
+    </row>
+    <row r="78" spans="1:13" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>3</v>
       </c>
@@ -3228,7 +3586,7 @@
         <v>76</v>
       </c>
       <c r="D78" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42287</v>
       </c>
       <c r="E78" s="7" t="s">
@@ -3238,22 +3596,27 @@
         <v>5</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I78" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 76, 76, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+      <c r="I78" s="18" t="str">
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 76, 76, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="J78" s="10"/>
       <c r="K78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="L78" s="17">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="M78"/>
+    </row>
+    <row r="79" spans="1:13" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>3</v>
       </c>
@@ -3264,7 +3627,7 @@
         <v>77</v>
       </c>
       <c r="D79" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42288</v>
       </c>
       <c r="E79" s="7" t="s">
@@ -3279,17 +3642,22 @@
       <c r="H79" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I79" s="2" t="str">
-        <f t="shared" si="6"/>
+      <c r="I79" s="18" t="str">
+        <f t="shared" si="8"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 77, 77, 'Long Run', 15, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
       </c>
       <c r="J79" s="10"/>
       <c r="K79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L79" s="17">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="M79"/>
+    </row>
+    <row r="80" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>3</v>
       </c>
@@ -3300,7 +3668,7 @@
         <v>78</v>
       </c>
       <c r="D80" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42289</v>
       </c>
       <c r="E80" s="3" t="s">
@@ -3310,21 +3678,25 @@
         <v>7</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I80" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 78, 78, 'Easy Run', 7, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 78, 78, 'Easy Run', 7, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L80" s="17">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>3</v>
       </c>
@@ -3335,7 +3707,7 @@
         <v>79</v>
       </c>
       <c r="D81" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42290</v>
       </c>
       <c r="E81" s="3" t="s">
@@ -3345,21 +3717,25 @@
         <v>4</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I81" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 79, 79, 'Speed Workout', 4, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'Track');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 79, 79, 'Speed Workout', 4, '1-2 mi warm up, 1-2 mi cool down, 4x1200 - 400 recovery, Speed Pace -1:00, Recovery Pace +2:20', 'Track');</v>
       </c>
       <c r="K81">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L81" s="17">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>3</v>
       </c>
@@ -3370,7 +3746,7 @@
         <v>80</v>
       </c>
       <c r="D82" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42291</v>
       </c>
       <c r="E82" s="3" t="s">
@@ -3380,21 +3756,26 @@
         <v>0</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I82" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 80, 80, 'Rest Day', 0, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'None');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 80, 80, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L82" s="17">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="M82" s="11"/>
+    </row>
+    <row r="83" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>3</v>
       </c>
@@ -3405,7 +3786,7 @@
         <v>81</v>
       </c>
       <c r="D83" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42292</v>
       </c>
       <c r="E83" s="3" t="s">
@@ -3415,21 +3796,25 @@
         <v>8</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I83" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 81, 81, 'Tempo Workout', 8, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 81, 81, 'Tempo Workout', 8, '1-2 mi warm up, 1-2 mi cool down', 'The Road');</v>
       </c>
       <c r="K83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L83" s="17">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>3</v>
       </c>
@@ -3440,7 +3825,7 @@
         <v>82</v>
       </c>
       <c r="D84" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42293</v>
       </c>
       <c r="E84" s="3" t="s">
@@ -3450,21 +3835,25 @@
         <v>5</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I84" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 82, 82, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 82, 82, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L84" s="17">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>3</v>
       </c>
@@ -3475,7 +3864,7 @@
         <v>83</v>
       </c>
       <c r="D85" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42294</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -3485,21 +3874,25 @@
         <v>8</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H85" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I85" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 83, 83, 'Easy Run', 8, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 83, 83, 'Easy Run', 8, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L85" s="17">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>3</v>
       </c>
@@ -3510,7 +3903,7 @@
         <v>84</v>
       </c>
       <c r="D86" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42295</v>
       </c>
       <c r="E86" s="3" t="s">
@@ -3526,15 +3919,19 @@
         <v>10</v>
       </c>
       <c r="I86" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 84, 84, 'Long Run', 10, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
       </c>
       <c r="K86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L86" s="17">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>3</v>
       </c>
@@ -3545,7 +3942,7 @@
         <v>85</v>
       </c>
       <c r="D87" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42296</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -3555,21 +3952,25 @@
         <v>5</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I87" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 85, 85, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 85, 85, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L87" s="17">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>3</v>
       </c>
@@ -3580,7 +3981,7 @@
         <v>86</v>
       </c>
       <c r="D88" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42297</v>
       </c>
       <c r="E88" s="3" t="s">
@@ -3590,21 +3991,25 @@
         <v>7.5</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H88" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I88" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 86, 86, 'Strength Workout', 7.5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'Track');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 86, 86, 'Strength Workout', 7.5, '1-2 mi warm up, 1-2 mi cool down, 6x1 mi - 400 m recovery, Speed Pace -0:10, Recovery Pace +2:20', 'Track');</v>
       </c>
       <c r="K88">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L88" s="17">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>3</v>
       </c>
@@ -3615,7 +4020,7 @@
         <v>87</v>
       </c>
       <c r="D89" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42298</v>
       </c>
       <c r="E89" s="3" t="s">
@@ -3625,21 +4030,26 @@
         <v>0</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I89" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 87, 87, 'Rest Day', 0, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'None');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 87, 87, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L89" s="17">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="M89" s="11"/>
+    </row>
+    <row r="90" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>3</v>
       </c>
@@ -3650,7 +4060,7 @@
         <v>88</v>
       </c>
       <c r="D90" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42299</v>
       </c>
       <c r="E90" s="3" t="s">
@@ -3660,21 +4070,25 @@
         <v>8</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I90" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 88, 88, 'Tempo Workout', 8, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 88, 88, 'Tempo Workout', 8, '1-2 mi warm up, 1-2 mi cool down', 'The Road');</v>
       </c>
       <c r="K90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L90" s="17">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>3</v>
       </c>
@@ -3685,7 +4099,7 @@
         <v>89</v>
       </c>
       <c r="D91" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42300</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -3695,21 +4109,25 @@
         <v>5</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I91" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 89, 89, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 89, 89, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L91" s="17">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>3</v>
       </c>
@@ -3720,7 +4138,7 @@
         <v>90</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42301</v>
       </c>
       <c r="E92" s="3" t="s">
@@ -3730,21 +4148,25 @@
         <v>8</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I92" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 90, 90, 'Easy Run', 8, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 90, 90, 'Easy Run', 8, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L92" s="17">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>3</v>
       </c>
@@ -3755,7 +4177,7 @@
         <v>91</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42302</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -3771,15 +4193,19 @@
         <v>10</v>
       </c>
       <c r="I93" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 91, 91, 'Long Run', 16, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
       </c>
       <c r="K93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L93" s="17">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>3</v>
       </c>
@@ -3790,7 +4216,7 @@
         <v>92</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42303</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -3800,21 +4226,25 @@
         <v>5</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I94" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 92, 92, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 92, 92, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L94" s="17">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>3</v>
       </c>
@@ -3825,7 +4255,7 @@
         <v>93</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42304</v>
       </c>
       <c r="E95" s="3" t="s">
@@ -3835,21 +4265,25 @@
         <v>8</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I95" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 93, 93, 'Strength Workout', 8, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'Track');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 93, 93, 'Strength Workout', 8, '1-2 mi warm up, 1-2 mi cool down, 4x1.5 mi - 800 m recovery, Speed Pace -0:10, Recovery Pace +2:20', 'Track');</v>
       </c>
       <c r="K95">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L95" s="17">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>3</v>
       </c>
@@ -3860,7 +4294,7 @@
         <v>94</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42305</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -3870,21 +4304,26 @@
         <v>0</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I96" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 94, 94, 'Rest Day', 0, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'None');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 94, 94, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L96" s="17">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="M96" s="11"/>
+    </row>
+    <row r="97" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>3</v>
       </c>
@@ -3895,7 +4334,7 @@
         <v>95</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42306</v>
       </c>
       <c r="E97" s="3" t="s">
@@ -3905,21 +4344,25 @@
         <v>9</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I97" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 95, 95, 'Tempo Workout', 9, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 95, 95, 'Tempo Workout', 9, '1-2 mi warm up, 1-2 mi cool down', 'The Road');</v>
       </c>
       <c r="K97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L97" s="17">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>3</v>
       </c>
@@ -3930,7 +4373,7 @@
         <v>96</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42307</v>
       </c>
       <c r="E98" s="3" t="s">
@@ -3940,21 +4383,25 @@
         <v>5</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I98" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 96, 96, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 96, 96, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L98" s="17">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>3</v>
       </c>
@@ -3965,7 +4412,7 @@
         <v>97</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42308</v>
       </c>
       <c r="E99" s="3" t="s">
@@ -3975,21 +4422,25 @@
         <v>8</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H99" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I99" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 97, 97, 'Easy Run', 8, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 97, 97, 'Easy Run', 8, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L99" s="17">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>3</v>
       </c>
@@ -4000,7 +4451,7 @@
         <v>98</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42309</v>
       </c>
       <c r="E100" s="3" t="s">
@@ -4016,15 +4467,19 @@
         <v>10</v>
       </c>
       <c r="I100" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 98, 98, 'Long Run', 10, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
       </c>
       <c r="K100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L100" s="17">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>3</v>
       </c>
@@ -4035,7 +4490,7 @@
         <v>99</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42310</v>
       </c>
       <c r="E101" s="3" t="s">
@@ -4045,21 +4500,25 @@
         <v>7</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I101" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 99, 99, 'Easy Run', 7, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 99, 99, 'Easy Run', 7, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L101" s="17">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>3</v>
       </c>
@@ -4070,7 +4529,7 @@
         <v>100</v>
       </c>
       <c r="D102" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42311</v>
       </c>
       <c r="E102" s="3" t="s">
@@ -4080,21 +4539,25 @@
         <v>7.5</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I102" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 100, 100, 'Strength Workout', 7.5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'Track');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 100, 100, 'Strength Workout', 7.5, '1-2 mi warm up, 1-2 mi cool down, 3x2 mi - 800 m recovery, Speed Pace -0:10, Recovery Pace +2:20', 'Track');</v>
       </c>
       <c r="K102">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L102" s="17">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>3</v>
       </c>
@@ -4105,7 +4568,7 @@
         <v>101</v>
       </c>
       <c r="D103" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42312</v>
       </c>
       <c r="E103" s="3" t="s">
@@ -4115,21 +4578,26 @@
         <v>0</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I103" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 101, 101, 'Rest Day', 0, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'None');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 101, 101, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L103" s="17">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="M103" s="11"/>
+    </row>
+    <row r="104" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>3</v>
       </c>
@@ -4140,7 +4608,7 @@
         <v>102</v>
       </c>
       <c r="D104" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42313</v>
       </c>
       <c r="E104" s="3" t="s">
@@ -4150,21 +4618,25 @@
         <v>9</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I104" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 102, 102, 'Tempo Workout', 9, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 102, 102, 'Tempo Workout', 9, '1-2 mi warm up, 1-2 mi cool down', 'The Road');</v>
       </c>
       <c r="K104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L104" s="17">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>3</v>
       </c>
@@ -4175,7 +4647,7 @@
         <v>103</v>
       </c>
       <c r="D105" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42314</v>
       </c>
       <c r="E105" s="3" t="s">
@@ -4185,21 +4657,25 @@
         <v>6</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I105" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 103, 103, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 103, 103, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L105" s="17">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>3</v>
       </c>
@@ -4210,7 +4686,7 @@
         <v>104</v>
       </c>
       <c r="D106" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42315</v>
       </c>
       <c r="E106" s="3" t="s">
@@ -4220,21 +4696,25 @@
         <v>6</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I106" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 104, 104, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 104, 104, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L106" s="17">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>3</v>
       </c>
@@ -4245,7 +4725,7 @@
         <v>105</v>
       </c>
       <c r="D107" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42316</v>
       </c>
       <c r="E107" s="3" t="s">
@@ -4261,18 +4741,22 @@
         <v>10</v>
       </c>
       <c r="I107" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 105, 105, 'Long Run', 16, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
       </c>
       <c r="J107" t="s">
         <v>18</v>
       </c>
       <c r="K107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L107" s="17">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>3</v>
       </c>
@@ -4283,7 +4767,7 @@
         <v>106</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42317</v>
       </c>
       <c r="E108" s="3" t="s">
@@ -4293,21 +4777,25 @@
         <v>5</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I108" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 106, 106, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 106, 106, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L108" s="17">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>3</v>
       </c>
@@ -4318,7 +4806,7 @@
         <v>107</v>
       </c>
       <c r="D109" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42318</v>
       </c>
       <c r="E109" s="3" t="s">
@@ -4328,21 +4816,25 @@
         <v>8</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I109" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 107, 107, 'Strength Workout', 8, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'Track');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 107, 107, 'Strength Workout', 8, '1-2 mi warm up, 1-2 mi cool down, 2x3 mi - 1 mi recovery, Speed Pace -0:10, Recovery Pace +2:20', 'Track');</v>
       </c>
       <c r="K109">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L109" s="17">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>3</v>
       </c>
@@ -4353,7 +4845,7 @@
         <v>108</v>
       </c>
       <c r="D110" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42319</v>
       </c>
       <c r="E110" s="3" t="s">
@@ -4363,21 +4855,26 @@
         <v>0</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I110" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 108, 108, 'Rest Day', 0, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'None');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 108, 108, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L110" s="17">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="M110" s="11"/>
+    </row>
+    <row r="111" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>3</v>
       </c>
@@ -4388,7 +4885,7 @@
         <v>109</v>
       </c>
       <c r="D111" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42320</v>
       </c>
       <c r="E111" s="3" t="s">
@@ -4398,21 +4895,25 @@
         <v>9</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I111" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 109, 109, 'Tempo Workout', 9, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 109, 109, 'Tempo Workout', 9, '1-2 mi warm up, 1-2 mi cool down', 'The Road');</v>
       </c>
       <c r="K111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L111" s="17">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>3</v>
       </c>
@@ -4423,7 +4924,7 @@
         <v>110</v>
       </c>
       <c r="D112" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42321</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -4433,21 +4934,25 @@
         <v>5</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I112" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 110, 110, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 110, 110, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L112" s="17">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>3</v>
       </c>
@@ -4458,7 +4963,7 @@
         <v>111</v>
       </c>
       <c r="D113" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42322</v>
       </c>
       <c r="E113" s="3" t="s">
@@ -4468,21 +4973,25 @@
         <v>8</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I113" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 111, 111, 'Easy Run', 8, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 111, 111, 'Easy Run', 8, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L113" s="17">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>3</v>
       </c>
@@ -4493,7 +5002,7 @@
         <v>112</v>
       </c>
       <c r="D114" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42323</v>
       </c>
       <c r="E114" s="3" t="s">
@@ -4509,15 +5018,19 @@
         <v>10</v>
       </c>
       <c r="I114" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 112, 112, 'Long Run', 10, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
       </c>
       <c r="K114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L114" s="17">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>3</v>
       </c>
@@ -4528,7 +5041,7 @@
         <v>113</v>
       </c>
       <c r="D115" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42324</v>
       </c>
       <c r="E115" s="3" t="s">
@@ -4538,21 +5051,25 @@
         <v>7</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I115" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 113, 113, 'Easy Run', 7, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 113, 113, 'Easy Run', 7, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L115" s="17">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>3</v>
       </c>
@@ -4563,7 +5080,7 @@
         <v>114</v>
       </c>
       <c r="D116" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42325</v>
       </c>
       <c r="E116" s="3" t="s">
@@ -4573,21 +5090,25 @@
         <v>7.5</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I116" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 114, 114, 'Strength Workout', 7.5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'Track');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 114, 114, 'Strength Workout', 7.5, '1-2 mi warm up, 1-2 mi cool down, 3x2 mi - 800 m recovery, Speed Pace -0:10, Recovery Pace +2:20', 'Track');</v>
       </c>
       <c r="K116">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L116" s="17">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>3</v>
       </c>
@@ -4598,7 +5119,7 @@
         <v>115</v>
       </c>
       <c r="D117" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42326</v>
       </c>
       <c r="E117" s="3" t="s">
@@ -4608,21 +5129,26 @@
         <v>0</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I117" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 115, 115, 'Rest Day', 0, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'None');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 115, 115, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L117" s="17">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="M117" s="11"/>
+    </row>
+    <row r="118" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>3</v>
       </c>
@@ -4633,7 +5159,7 @@
         <v>116</v>
       </c>
       <c r="D118" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42327</v>
       </c>
       <c r="E118" s="3" t="s">
@@ -4643,21 +5169,25 @@
         <v>10</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I118" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 116, 116, 'Tempo Workout', 10, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 116, 116, 'Tempo Workout', 10, '1-2 mi warm up, 1-2 mi cool down', 'The Road');</v>
       </c>
       <c r="K118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L118" s="17">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>3</v>
       </c>
@@ -4668,7 +5198,7 @@
         <v>117</v>
       </c>
       <c r="D119" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42328</v>
       </c>
       <c r="E119" s="3" t="s">
@@ -4678,21 +5208,25 @@
         <v>6</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I119" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 117, 117, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 117, 117, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L119" s="17">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>3</v>
       </c>
@@ -4703,7 +5237,7 @@
         <v>118</v>
       </c>
       <c r="D120" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42329</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -4713,21 +5247,25 @@
         <v>6</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I120" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 118, 118, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 118, 118, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L120" s="17">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>3</v>
       </c>
@@ -4738,7 +5276,7 @@
         <v>119</v>
       </c>
       <c r="D121" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42330</v>
       </c>
       <c r="E121" s="3" t="s">
@@ -4754,15 +5292,19 @@
         <v>10</v>
       </c>
       <c r="I121" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 119, 119, 'Long Run', 16, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
       </c>
       <c r="K121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L121" s="17">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>3</v>
       </c>
@@ -4773,7 +5315,7 @@
         <v>120</v>
       </c>
       <c r="D122" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42331</v>
       </c>
       <c r="E122" s="3" t="s">
@@ -4783,21 +5325,25 @@
         <v>5</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I122" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 120, 120, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 120, 120, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L122" s="17">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>3</v>
       </c>
@@ -4808,7 +5354,7 @@
         <v>121</v>
       </c>
       <c r="D123" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42332</v>
       </c>
       <c r="E123" s="3" t="s">
@@ -4818,21 +5364,25 @@
         <v>8</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I123" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 121, 121, 'Strength Workout', 8, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'Track');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 121, 121, 'Strength Workout', 8, '1-2 mi warm up, 1-2 mi cool down, 4x1.5 mi - 800 m recovery, Speed Pace -0:10, Recovery Pace +2:20', 'Track');</v>
       </c>
       <c r="K123">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L123" s="17">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
         <v>3</v>
       </c>
@@ -4843,7 +5393,7 @@
         <v>122</v>
       </c>
       <c r="D124" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42333</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -4853,21 +5403,26 @@
         <v>0</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I124" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 122, 122, 'Rest Day', 0, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'None');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 122, 122, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L124" s="17">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="M124" s="11"/>
+    </row>
+    <row r="125" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>3</v>
       </c>
@@ -4878,7 +5433,7 @@
         <v>123</v>
       </c>
       <c r="D125" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42334</v>
       </c>
       <c r="E125" s="3" t="s">
@@ -4888,21 +5443,25 @@
         <v>10</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I125" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 123, 123, 'Tempo Workout', 10, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 123, 123, 'Tempo Workout', 10, '1-2 mi warm up, 1-2 mi cool down', 'The Road');</v>
       </c>
       <c r="K125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L125" s="17">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>3</v>
       </c>
@@ -4913,7 +5472,7 @@
         <v>124</v>
       </c>
       <c r="D126" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42335</v>
       </c>
       <c r="E126" s="3" t="s">
@@ -4923,21 +5482,25 @@
         <v>5</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I126" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 124, 124, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 124, 124, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L126" s="17">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>3</v>
       </c>
@@ -4948,7 +5511,7 @@
         <v>125</v>
       </c>
       <c r="D127" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42336</v>
       </c>
       <c r="E127" s="3" t="s">
@@ -4958,21 +5521,25 @@
         <v>8</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I127" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 125, 125, 'Easy Run', 8, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 125, 125, 'Easy Run', 8, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L127" s="17">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>3</v>
       </c>
@@ -4983,7 +5550,7 @@
         <v>126</v>
       </c>
       <c r="D128" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42337</v>
       </c>
       <c r="E128" s="3" t="s">
@@ -4999,15 +5566,19 @@
         <v>10</v>
       </c>
       <c r="I128" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 126, 126, 'Long Run', 10, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
       </c>
       <c r="K128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L128" s="17">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>3</v>
       </c>
@@ -5018,7 +5589,7 @@
         <v>127</v>
       </c>
       <c r="D129" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42338</v>
       </c>
       <c r="E129" s="3" t="s">
@@ -5028,21 +5599,25 @@
         <v>7</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I129" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 127, 127, 'Easy Run', 7, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 127, 127, 'Easy Run', 7, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L129" s="17">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>3</v>
       </c>
@@ -5053,7 +5628,7 @@
         <v>128</v>
       </c>
       <c r="D130" s="6">
-        <f t="shared" ref="D130:D142" si="9">$D$1+C130</f>
+        <f t="shared" ref="D130:D142" si="11">$D$1+C130</f>
         <v>42339</v>
       </c>
       <c r="E130" s="3" t="s">
@@ -5063,21 +5638,25 @@
         <v>7.5</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="I130" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 128, 128, 'Strength Workout', 7.5, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'Track');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 128, 128, 'Strength Workout', 7.5, '1-2 mi warm up, 1-2 mi cool down, 6x1 mi - 400 m recovery, Speed Pace -0:10, Recovery Pace +2:20', 'Track');</v>
       </c>
       <c r="K130">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="L130" s="17">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>3</v>
       </c>
@@ -5088,7 +5667,7 @@
         <v>129</v>
       </c>
       <c r="D131" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42340</v>
       </c>
       <c r="E131" s="3" t="s">
@@ -5098,21 +5677,26 @@
         <v>0</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I131" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 129, 129, 'Rest Day', 0, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'None');</v>
+        <f t="shared" si="8"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 129, 129, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L131" s="17">
+        <f t="shared" ref="L131:L142" si="12">WEEKNUM(D131)</f>
+        <v>49</v>
+      </c>
+      <c r="M131" s="11"/>
+    </row>
+    <row r="132" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>3</v>
       </c>
@@ -5123,7 +5707,7 @@
         <v>130</v>
       </c>
       <c r="D132" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42341</v>
       </c>
       <c r="E132" s="3" t="s">
@@ -5133,21 +5717,25 @@
         <v>10</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I132" s="2" t="str">
-        <f t="shared" ref="I132:I142" si="10">CONCATENATE("INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(", A132, ", ", B132, ", ", C132, ", '", E132, "', ", F132, ", '", G132, "', '", H132, "');")</f>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 130, 130, 'Tempo Workout', 10, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" ref="I132:I142" si="13">CONCATENATE("INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(", A132, ", ", B132, ", ", C132, ", '", E132, "', ", F132, ", '", G132, "', '", H132, "');")</f>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 130, 130, 'Tempo Workout', 10, '1-2 mi warm up, 1-2 mi cool down', 'The Road');</v>
       </c>
       <c r="K132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L132" s="17">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>3</v>
       </c>
@@ -5158,7 +5746,7 @@
         <v>131</v>
       </c>
       <c r="D133" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42342</v>
       </c>
       <c r="E133" s="3" t="s">
@@ -5168,21 +5756,25 @@
         <v>6</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I133" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 131, 131, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="13"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 131, 131, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L133" s="17">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>3</v>
       </c>
@@ -5193,7 +5785,7 @@
         <v>132</v>
       </c>
       <c r="D134" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42343</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -5203,21 +5795,25 @@
         <v>6</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>10</v>
       </c>
       <c r="I134" s="2" t="str">
-        <f t="shared" si="10"/>
-        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 132, 132, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
+        <f t="shared" si="13"/>
+        <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 132, 132, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L134" s="17">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>3</v>
       </c>
@@ -5228,7 +5824,7 @@
         <v>133</v>
       </c>
       <c r="D135" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42344</v>
       </c>
       <c r="E135" s="3" t="s">
@@ -5244,18 +5840,22 @@
         <v>10</v>
       </c>
       <c r="I135" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 133, 133, 'Long Run', 8, '1 mi warm up, 1 mi cool down, Pace +0:45 min', 'The Road');</v>
       </c>
       <c r="J135" t="s">
         <v>19</v>
       </c>
       <c r="K135">
-        <f t="shared" ref="K135:K142" si="11">WEEKDAY(D135)</f>
+        <f t="shared" ref="K135:K142" si="14">WEEKDAY(D135)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L135" s="17">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>3</v>
       </c>
@@ -5266,7 +5866,7 @@
         <v>134</v>
       </c>
       <c r="D136" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42345</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -5282,15 +5882,19 @@
         <v>10</v>
       </c>
       <c r="I136" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 134, 134, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K136">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L136" s="17">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>3</v>
       </c>
@@ -5301,7 +5905,7 @@
         <v>135</v>
       </c>
       <c r="D137" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42346</v>
       </c>
       <c r="E137" s="3" t="s">
@@ -5317,15 +5921,19 @@
         <v>10</v>
       </c>
       <c r="I137" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 135, 135, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K137">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="L137" s="17">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>3</v>
       </c>
@@ -5336,7 +5944,7 @@
         <v>136</v>
       </c>
       <c r="D138" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42347</v>
       </c>
       <c r="E138" s="3" t="s">
@@ -5352,15 +5960,20 @@
         <v>20</v>
       </c>
       <c r="I138" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 136, 136, 'Rest Day', 0, 'Take it Easy', 'None');</v>
       </c>
       <c r="K138">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L138" s="17">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+      <c r="M138" s="11"/>
+    </row>
+    <row r="139" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>3</v>
       </c>
@@ -5371,7 +5984,7 @@
         <v>137</v>
       </c>
       <c r="D139" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42348</v>
       </c>
       <c r="E139" s="3" t="s">
@@ -5387,15 +6000,19 @@
         <v>10</v>
       </c>
       <c r="I139" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 137, 137, 'Easy Run', 6, '1 mi warm up, 1 mi cool down, Pace +2:00 min', 'The Road');</v>
       </c>
       <c r="K139">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L139" s="17">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>3</v>
       </c>
@@ -5406,7 +6023,7 @@
         <v>138</v>
       </c>
       <c r="D140" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42349</v>
       </c>
       <c r="E140" s="3" t="s">
@@ -5422,15 +6039,19 @@
         <v>10</v>
       </c>
       <c r="I140" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 138, 138, 'Easy Run', 5, '1 mi warm up, 1 mi cool down, Pace +1:30 min', 'The Road');</v>
       </c>
       <c r="K140">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L140" s="17">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>3</v>
       </c>
@@ -5441,7 +6062,7 @@
         <v>139</v>
       </c>
       <c r="D141" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42350</v>
       </c>
       <c r="E141" s="3" t="s">
@@ -5457,15 +6078,19 @@
         <v>10</v>
       </c>
       <c r="I141" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 139, 139, 'Easy Run', 3, '1 mi warm up, 1 mi cool down, Pace +1:00 min', 'The Road');</v>
       </c>
       <c r="K141">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="142" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="L141" s="17">
+        <f t="shared" si="12"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
         <v>3</v>
       </c>
@@ -5476,7 +6101,7 @@
         <v>140</v>
       </c>
       <c r="D142" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>42351</v>
       </c>
       <c r="E142" s="3" t="s">
@@ -5492,16 +6117,20 @@
         <v>10</v>
       </c>
       <c r="I142" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>INSERT INTO RACE.RACE_WK_SCHED_DET (RWSD_KEY, RWSD_SEQ, RWSD_DATE, RWSD_TYPE, RWSD_DISTMI, RWSD_NOTE, RWSD_LOCATION) VALUES(3, 140, 140, 'Race Day', 26.37, '1-3 mi warm up', 'The Road');</v>
       </c>
       <c r="K142">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
+      <c r="L142" s="17">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K142"/>
+  <autoFilter ref="A1:L142"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
